--- a/módulo 07/aula-graficos.xlsx
+++ b/módulo 07/aula-graficos.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="741"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="741" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico evolução de vendas" sheetId="8" r:id="rId1"/>
     <sheet name="Evolução das Vendas" sheetId="2" r:id="rId2"/>
-    <sheet name="Controle de Vendas" sheetId="7" r:id="rId3"/>
+    <sheet name="Gráfico manual" sheetId="9" r:id="rId3"/>
+    <sheet name="Controle de Vendas" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Mês</t>
   </si>
@@ -122,6 +123,24 @@
   </si>
   <si>
     <t>Clica no gráfico: no simbolo de mais para definir os campos que apareceram no gráfico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir gráfico manualmente:clica em uma célula vazia/clica na aba inserir/inserir gráfico/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clica no gráfico em branco/design/clica em selecionar dados/para inserir elementos no gráfico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clica na aba entrada de legendas(séries)/ adicionar/coloca o nome do campos/na caixa de texto abaixo  </t>
+  </si>
+  <si>
+    <t>insere o intervalo de dados que irá aparecer no gráfico/ok - Para editar os rótulos ( aparece na horizontal)</t>
+  </si>
+  <si>
+    <t>Colocar o gráfico em outra página: clica no gráfico/aba design/mover gráfico/marca a opção nova planilha</t>
+  </si>
+  <si>
+    <t>Insere o novo nome/enter</t>
   </si>
 </sst>
 </file>
@@ -270,14 +289,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -382,7 +401,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" cap="none" spc="0">
+              <a:defRPr cap="none">
                 <a:ln w="0"/>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -394,9 +413,6 @@
                     </a:schemeClr>
                   </a:outerShdw>
                 </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR" b="0" cap="none" spc="0">
@@ -420,9 +436,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -967,8 +981,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1089677104"/>
-        <c:axId val="1089668944"/>
+        <c:axId val="1815875792"/>
+        <c:axId val="1815879056"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1136,7 +1150,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1089677104"/>
+        <c:axId val="1815875792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1249,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1089668944"/>
+        <c:crossAx val="1815879056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1089668944"/>
+        <c:axId val="1815879056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1369,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1089677104"/>
+        <c:crossAx val="1815875792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1431,7 +1445,1052 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Evolução</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400" b="1" baseline="0"/>
+              <a:t>das vendas</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="2400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orçado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$B$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Realizado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21760</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30207.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29115.999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="1883651200"/>
+        <c:axId val="1883645216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1883651200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Meses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883645216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883645216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de vendas</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1092279032167489E-2"/>
+              <c:y val="0.29914627338249383"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883651200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orçado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$B$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1883653920"/>
+        <c:axId val="1883640864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1883653920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883640864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883640864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883653920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1987,11 +3046,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2002,7 +4078,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9658945" cy="6027539"/>
+    <xdr:ext cx="9630833" cy="5997222"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -2027,6 +4103,33 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9633857" cy="6000750"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2045,7 +4148,7 @@
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +4227,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,6 +4314,36 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2515,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,7 +4659,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2560,7 +4693,7 @@
       <c r="B3" s="4">
         <v>2016</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="19" t="str">
         <f>CONCATENATE(A3,"/",B3)</f>
         <v>1/2016</v>
       </c>
@@ -2571,7 +4704,9 @@
         <v>7625</v>
       </c>
       <c r="F3"/>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -2580,7 +4715,7 @@
       <c r="B4" s="6">
         <v>2016</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="19" t="str">
         <f t="shared" ref="C4:C36" si="0">CONCATENATE(A4,"/",B4)</f>
         <v>2/2016</v>
       </c>
@@ -2591,7 +4726,9 @@
         <v>3056</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -2600,7 +4737,7 @@
       <c r="B5" s="6">
         <v>2016</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>3/2016</v>
       </c>
@@ -2611,7 +4748,9 @@
         <v>5119</v>
       </c>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -2620,7 +4759,7 @@
       <c r="B6" s="6">
         <v>2016</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>4/2016</v>
       </c>
@@ -2631,7 +4770,9 @@
         <v>4008</v>
       </c>
       <c r="F6"/>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -2640,7 +4781,7 @@
       <c r="B7" s="6">
         <v>2016</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>5/2016</v>
       </c>
@@ -2660,7 +4801,7 @@
       <c r="B8" s="6">
         <v>2016</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>6/2016</v>
       </c>
@@ -2671,7 +4812,9 @@
         <v>4255</v>
       </c>
       <c r="F8"/>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -2680,7 +4823,7 @@
       <c r="B9" s="6">
         <v>2016</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>7/2016</v>
       </c>
@@ -2691,7 +4834,9 @@
         <v>7996</v>
       </c>
       <c r="F9"/>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -2700,7 +4845,7 @@
       <c r="B10" s="6">
         <v>2016</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>8/2016</v>
       </c>
@@ -2720,7 +4865,7 @@
       <c r="B11" s="6">
         <v>2016</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>9/2016</v>
       </c>
@@ -2740,7 +4885,7 @@
       <c r="B12" s="6">
         <v>2016</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>10/2016</v>
       </c>
@@ -2760,7 +4905,7 @@
       <c r="B13" s="6">
         <v>2016</v>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>11/2016</v>
       </c>
@@ -2780,7 +4925,7 @@
       <c r="B14" s="6">
         <v>2016</v>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>12/2016</v>
       </c>
@@ -2800,7 +4945,7 @@
       <c r="B15" s="6">
         <v>2017</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>1/2017</v>
       </c>
@@ -2820,7 +4965,7 @@
       <c r="B16" s="6">
         <v>2017</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>2/2017</v>
       </c>
@@ -2840,7 +4985,7 @@
       <c r="B17" s="6">
         <v>2017</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>3/2017</v>
       </c>
@@ -2860,7 +5005,7 @@
       <c r="B18" s="6">
         <v>2017</v>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>4/2017</v>
       </c>
@@ -2880,7 +5025,7 @@
       <c r="B19" s="6">
         <v>2017</v>
       </c>
-      <c r="C19" s="20" t="str">
+      <c r="C19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>5/2017</v>
       </c>
@@ -2900,7 +5045,7 @@
       <c r="B20" s="6">
         <v>2017</v>
       </c>
-      <c r="C20" s="20" t="str">
+      <c r="C20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>6/2017</v>
       </c>
@@ -2920,7 +5065,7 @@
       <c r="B21" s="6">
         <v>2017</v>
       </c>
-      <c r="C21" s="20" t="str">
+      <c r="C21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>7/2017</v>
       </c>
@@ -2942,7 +5087,7 @@
       <c r="B22" s="6">
         <v>2017</v>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>8/2017</v>
       </c>
@@ -2964,7 +5109,7 @@
       <c r="B23" s="6">
         <v>2017</v>
       </c>
-      <c r="C23" s="20" t="str">
+      <c r="C23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>9/2017</v>
       </c>
@@ -2984,7 +5129,7 @@
       <c r="B24" s="6">
         <v>2017</v>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>10/2017</v>
       </c>
@@ -3006,7 +5151,7 @@
       <c r="B25" s="6">
         <v>2017</v>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>11/2017</v>
       </c>
@@ -3028,7 +5173,7 @@
       <c r="B26" s="6">
         <v>2017</v>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>12/2017</v>
       </c>
@@ -3048,7 +5193,7 @@
       <c r="B27" s="6">
         <v>2018</v>
       </c>
-      <c r="C27" s="20" t="str">
+      <c r="C27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>1/2018</v>
       </c>
@@ -3070,7 +5215,7 @@
       <c r="B28" s="6">
         <v>2018</v>
       </c>
-      <c r="C28" s="20" t="str">
+      <c r="C28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>2/2018</v>
       </c>
@@ -3090,7 +5235,7 @@
       <c r="B29" s="6">
         <v>2018</v>
       </c>
-      <c r="C29" s="20" t="str">
+      <c r="C29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>3/2018</v>
       </c>
@@ -3110,7 +5255,7 @@
       <c r="B30" s="6">
         <v>2018</v>
       </c>
-      <c r="C30" s="20" t="str">
+      <c r="C30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>4/2018</v>
       </c>
@@ -3130,7 +5275,7 @@
       <c r="B31" s="6">
         <v>2018</v>
       </c>
-      <c r="C31" s="20" t="str">
+      <c r="C31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>5/2018</v>
       </c>
@@ -3150,7 +5295,7 @@
       <c r="B32" s="6">
         <v>2018</v>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>6/2018</v>
       </c>
@@ -3170,7 +5315,7 @@
       <c r="B33" s="6">
         <v>2018</v>
       </c>
-      <c r="C33" s="20" t="str">
+      <c r="C33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>7/2018</v>
       </c>
@@ -3190,7 +5335,7 @@
       <c r="B34" s="6">
         <v>2018</v>
       </c>
-      <c r="C34" s="20" t="str">
+      <c r="C34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>8/2018</v>
       </c>
@@ -3210,7 +5355,7 @@
       <c r="B35" s="6">
         <v>2018</v>
       </c>
-      <c r="C35" s="20" t="str">
+      <c r="C35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>9/2018</v>
       </c>
@@ -3230,7 +5375,7 @@
       <c r="B36" s="8">
         <v>2018</v>
       </c>
-      <c r="C36" s="21" t="str">
+      <c r="C36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>10/2018</v>
       </c>
@@ -4216,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,16 +6375,16 @@
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">

--- a/módulo 07/aula-graficos.xlsx
+++ b/módulo 07/aula-graficos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="741" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="741" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico evolução de vendas" sheetId="8" r:id="rId1"/>
@@ -431,7 +431,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -981,8 +980,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1815875792"/>
-        <c:axId val="1815879056"/>
+        <c:axId val="226329936"/>
+        <c:axId val="226330480"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1150,7 +1149,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1815875792"/>
+        <c:axId val="226329936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1249,7 +1247,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815879056"/>
+        <c:crossAx val="226330480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1815879056"/>
+        <c:axId val="226330480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1306,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1369,7 +1366,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1815875792"/>
+        <c:crossAx val="226329936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1383,7 +1380,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1495,10 +1491,30 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="pt-BR" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>das</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="pt-BR" sz="2400" b="1" baseline="0"/>
-              <a:t>das vendas</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="pt-BR" sz="2400" b="1"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>vendas</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="2400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1734,11 +1750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1883651200"/>
-        <c:axId val="1883645216"/>
+        <c:axId val="414295248"/>
+        <c:axId val="414291984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1883651200"/>
+        <c:axId val="414295248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1857,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883645216"/>
+        <c:crossAx val="414291984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1849,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1883645216"/>
+        <c:axId val="414291984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,8 +1932,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1092279032167489E-2"/>
-              <c:y val="0.29914627338249383"/>
+              <c:x val="1.1861486955489726E-2"/>
+              <c:y val="0.29067574953870307"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1980,7 +1996,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883651200"/>
+        <c:crossAx val="414295248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,11 +2271,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1883653920"/>
-        <c:axId val="1883640864"/>
+        <c:axId val="414295792"/>
+        <c:axId val="414290352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1883653920"/>
+        <c:axId val="414295792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2318,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883640864"/>
+        <c:crossAx val="414290352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2310,7 +2326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1883640864"/>
+        <c:axId val="414290352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2377,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883653920"/>
+        <c:crossAx val="414295792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2373,6 +2389,343 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Vendas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de janeiro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$E$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Higiene</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Limpeza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$E$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3817.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4382.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4948.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.66000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2530,6 +2883,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4020,6 +4413,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4067,7 +4979,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -4105,7 +5017,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9633857" cy="6000750"/>
+    <xdr:ext cx="9630833" cy="5997222"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -4148,7 +5060,7 @@
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4227,7 +5139,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4318,16 +5230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4341,6 +5253,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4648,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6361,8 +7303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/módulo 07/aula-graficos.xlsx
+++ b/módulo 07/aula-graficos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Mês</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Insere o novo nome/enter</t>
+  </si>
+  <si>
+    <t>Tabela de dados com legenda</t>
+  </si>
+  <si>
+    <t>Gráfico colunas empilhadas</t>
   </si>
 </sst>
 </file>
@@ -980,8 +986,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="226329936"/>
-        <c:axId val="226330480"/>
+        <c:axId val="565822336"/>
+        <c:axId val="565821248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1149,7 +1155,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226329936"/>
+        <c:axId val="565822336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1253,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226330480"/>
+        <c:crossAx val="565821248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226330480"/>
+        <c:axId val="565821248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1372,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226329936"/>
+        <c:crossAx val="565822336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,7 +1524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1750,11 +1755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="414295248"/>
-        <c:axId val="414291984"/>
+        <c:axId val="565812000"/>
+        <c:axId val="565824512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414295248"/>
+        <c:axId val="565812000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1795,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1857,7 +1861,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414291984"/>
+        <c:crossAx val="565824512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1865,7 +1869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414291984"/>
+        <c:axId val="565824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +2000,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414295248"/>
+        <c:crossAx val="565812000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,7 +2037,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2271,11 +2274,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="414295792"/>
-        <c:axId val="414290352"/>
+        <c:axId val="565814176"/>
+        <c:axId val="565823968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414295792"/>
+        <c:axId val="565814176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2321,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414290352"/>
+        <c:crossAx val="565823968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414290352"/>
+        <c:axId val="565823968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2380,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414295792"/>
+        <c:crossAx val="565814176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2763,6 +2766,1534 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Composição de vendas mensais</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$A$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4231.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2955.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3817.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7056.3499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6726.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5004.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7979.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11989.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6407.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6645.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6696.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$A$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5208.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6192.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4382.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5846.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6063.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6539.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4118.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3117.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4882.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10270.380000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12519.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Higiene</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$A$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4882.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3237.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4948.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4435.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3031.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4110.4800000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8051.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12097.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6234.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14951.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10874.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8152.4800000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limpeza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$A$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$H$5:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1953.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1688.8799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>989.66000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2822.5400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1732.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1307.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1544.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2637.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4271.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2416.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1746.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="568454816"/>
+        <c:axId val="568449376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="568454816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568449376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568449376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568454816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico colunas 100% empilhadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4231.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2955.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3817.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7056.3499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6726.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5004.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7979.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11989.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6407.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6645.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6696.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5208.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6192.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4382.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5846.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6063.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6539.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4118.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3117.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4882.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10270.380000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12519.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Higiene</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4882.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3237.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4948.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4435.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3031.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4110.4800000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8051.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12097.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6234.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14951.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10874.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8152.4800000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limpeza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$H$5:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1953.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1688.8799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>989.66000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2822.5400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1732.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1307.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1544.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2637.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4271.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2416.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1746.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="697379744"/>
+        <c:axId val="697391712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="697379744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697391712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="697391712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697379744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2923,6 +4454,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4622,6 +6233,1016 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5060,7 +7681,7 @@
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5139,7 +7760,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5283,6 +7904,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7301,10 +9982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:Y17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q18" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7312,8 +9993,8 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
@@ -7327,8 +10008,11 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
@@ -7350,8 +10034,11 @@
       <c r="H4" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -7379,7 +10066,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -7407,7 +10094,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -7435,7 +10122,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -7463,7 +10150,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
@@ -7491,7 +10178,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -7519,7 +10206,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
@@ -7547,7 +10234,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
@@ -7575,7 +10262,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -7603,7 +10290,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -7631,7 +10318,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -7659,7 +10346,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
